--- a/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
+++ b/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006689</t>
+          <t>008602</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>方正富邦信泓灵活配置混合A</t>
+          <t>方正富邦新兴成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>74.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008182</t>
+          <t>006689</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>方正富邦信泓灵活配置混合C</t>
+          <t>方正富邦信泓灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>82.37</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.88</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>77.86</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.10</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008602</t>
+          <t>008182</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>方正富邦新兴成长混合A</t>
+          <t>方正富邦信泓灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>74.88</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>74.88</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.27</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>19.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.82</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.87</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.82</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.87</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>77.84</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
+++ b/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
+++ b/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
+++ b/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
+++ b/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.26</v>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.12</v>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1528,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
+++ b/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1786,14 +1851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.26</v>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1802,14 +1889,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.12</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="6">
@@ -1818,13 +2027,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
+++ b/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.46</v>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1979,14 +2022,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -1995,14 +2060,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2011,14 +2098,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.26</v>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2027,14 +2136,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.12</v>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2043,13 +2174,181 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
+++ b/数据整理/stocks/A股/科创板/688179-阿拉丁.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>4.26</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1.12</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -881,7 +1030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1089,7 +1238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1449,7 +1598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1543,7 +1692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1941,7 +2090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2111,7 +2260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
